--- a/AWS_Cost_Data/fileB.xlsx
+++ b/AWS_Cost_Data/fileB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shreysi\Python\Python_Projects\Inventory_xlsx_editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shreysi\Python\Python_Projects\AWS_Cost_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CCE80-1E51-49A0-892A-A9E45D8733AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C0550-EA22-499D-9269-7039762FF9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{C3B7830B-E6CF-4C20-99FA-96F48A51374B}"/>
+    <workbookView xWindow="5376" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{C3B7830B-E6CF-4C20-99FA-96F48A51374B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Services</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>AWS</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>SNS</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E41F3A-2F78-465D-90B6-531E00D4ED8F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,8 +449,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6">
         <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
